--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2685580.098433191</v>
+        <v>2761109.768097997</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9242967.440945612</v>
+        <v>9242967.440945614</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>289.7046859959768</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>326.7014162146286</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -896,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>353.4869410072735</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>82.5995718321566</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>177.9498744325401</v>
       </c>
       <c r="U7" t="n">
-        <v>29.4750245876584</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>119.7641616298962</v>
+        <v>84.11892151122224</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.275596830496402</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>5.985757550887811</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>119.8741971385901</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>114.9309043193601</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.06705067831071</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>28.55669609962203</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>146.278729911946</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>87.60442205160133</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>194.8026695426854</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>178.4519010654738</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.3807313307303</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>97.24018360678589</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>62.74236544294535</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>188.1607094910709</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750035</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>189.6680532570898</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.7497637955644</v>
       </c>
       <c r="H40" t="n">
-        <v>89.09646007723597</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.90445977359259</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>88.90300047225696</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.51043302167577</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1175.523690667317</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2135.941483343059</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.941483343059</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4413,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4436,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.509002921313</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.509002921313</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4665,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="U7" t="n">
-        <v>698.3562320976883</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="V7" t="n">
-        <v>443.6717438918015</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="W7" t="n">
-        <v>443.6717438918015</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X7" t="n">
-        <v>443.6717438918015</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2521.146500912455</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="T8" t="n">
-        <v>2521.146500912455</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.384715550547</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.321828206976</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.553172936862</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="X8" t="n">
-        <v>1210.087414675782</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810043</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810043</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810043</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810043</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810043</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810043</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810043</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600558</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942398</v>
+        <v>550.5654064942408</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124025</v>
+        <v>550.5654064942408</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810043</v>
+        <v>550.5654064942408</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810043</v>
+        <v>550.5654064942408</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810043</v>
+        <v>550.5654064942408</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810043</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810043</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810043</v>
+        <v>544.5191867458693</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,37 +5038,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5106,7 +5108,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571612</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636255</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526318</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262065</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.3089140050941</v>
+        <v>534.3905543375959</v>
       </c>
       <c r="C13" t="n">
-        <v>213.3089140050941</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>213.3089140050941</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>213.3089140050941</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119729</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913842</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>843.7395088768812</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X13" t="n">
-        <v>615.7499579788639</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.9573788353338</v>
+        <v>534.3905543375959</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5257,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>354.6908600059909</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5513,25 +5515,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>552.6620995918039</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>552.6620995918039</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1151.239967633105</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>862.1113288466635</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>734.3105644220436</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1410.426955354265</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1121.298316567823</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>866.6138283619359</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>577.1966583249754</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>577.1966583249754</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6023,7 +6025,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1302.145897282463</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1078.360482071968</v>
       </c>
       <c r="U25" t="n">
-        <v>894.9563997422798</v>
+        <v>789.2318432855265</v>
       </c>
       <c r="V25" t="n">
-        <v>640.271911536393</v>
+        <v>534.5473550796396</v>
       </c>
       <c r="W25" t="n">
-        <v>640.271911536393</v>
+        <v>245.130185042679</v>
       </c>
       <c r="X25" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,25 +6220,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1204.628307189697</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V28" t="n">
-        <v>1111.565224087838</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W28" t="n">
-        <v>822.1480540508779</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X28" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y28" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,10 +6466,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.6350999123426</v>
+        <v>3522.531520626721</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>3522.531520626721</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>1308.854947839649</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U31" t="n">
-        <v>1019.726309053207</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="V31" t="n">
-        <v>765.0418208473204</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="W31" t="n">
-        <v>475.6246508103599</v>
+        <v>3971.313650668268</v>
       </c>
       <c r="X31" t="n">
-        <v>247.6350999123426</v>
+        <v>3743.324099770251</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.6350999123426</v>
+        <v>3522.531520626721</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6722,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6962,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1307.332378379024</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1307.332378379024</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1052.647890173137</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0396462065435</v>
+        <v>850.2141304319072</v>
       </c>
       <c r="C40" t="n">
-        <v>334.1034632786366</v>
+        <v>681.2779475040003</v>
       </c>
       <c r="D40" t="n">
-        <v>334.1034632786366</v>
+        <v>531.1613080916645</v>
       </c>
       <c r="E40" t="n">
-        <v>334.1034632786366</v>
+        <v>383.2482145092714</v>
       </c>
       <c r="F40" t="n">
-        <v>187.2135157807262</v>
+        <v>236.3582670113611</v>
       </c>
       <c r="G40" t="n">
-        <v>187.2135157807262</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141521</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W40" t="n">
-        <v>731.0291971045608</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X40" t="n">
-        <v>503.0396462065435</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y40" t="n">
-        <v>503.0396462065435</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7591,28 +7593,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.85945949167</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>4520.375241843983</v>
       </c>
       <c r="U43" t="n">
-        <v>4036.945405494735</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V43" t="n">
-        <v>4036.945405494735</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W43" t="n">
-        <v>3747.528235457774</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X43" t="n">
-        <v>3747.528235457774</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y43" t="n">
-        <v>3526.735656314244</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7649,25 +7651,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>990.7828679390639</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C46" t="n">
-        <v>821.846685011157</v>
+        <v>617.1460235486118</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7300455988212</v>
+        <v>617.1460235486118</v>
       </c>
       <c r="E46" t="n">
-        <v>523.8169520164281</v>
+        <v>617.1460235486118</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
         <v>208.7516828383384</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>1400.420883667321</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X46" t="n">
-        <v>1172.431332769303</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.431332769303</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747067</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735856</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>47.37262396003771</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>30.49014370357115</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>35.35219478596127</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>120.0587769185903</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>75.26883114644326</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>133.9431390067879</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.118140440917813</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>107.7854513331035</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24607,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>16.54007865287295</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>154.8974597170421</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>85.873107575267</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>33.38685156731836</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25123,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338571</v>
+        <v>30.75201340998649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>31.87950780129944</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>28.74380466781315</v>
       </c>
       <c r="H40" t="n">
-        <v>59.81736829030015</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.9275204083447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>56.51804755067428</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>189.0125653149152</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065632</v>
@@ -26329,31 +26331,31 @@
         <v>586543.5896065632</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="I2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="L2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="O2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476897</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159207</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007445</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
@@ -26442,22 +26444,22 @@
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.6785956619</v>
+        <v>-204962.6785956617</v>
       </c>
       <c r="C6" t="n">
-        <v>385005.2006188822</v>
+        <v>385005.2006188821</v>
       </c>
       <c r="D6" t="n">
-        <v>385005.2006188826</v>
+        <v>385005.2006188824</v>
       </c>
       <c r="E6" t="n">
-        <v>-38520.50447505806</v>
+        <v>-38520.50447505682</v>
       </c>
       <c r="F6" t="n">
-        <v>486639.5320018394</v>
+        <v>486639.5320018391</v>
       </c>
       <c r="G6" t="n">
         <v>486639.5320018391</v>
       </c>
       <c r="H6" t="n">
-        <v>486639.532001839</v>
+        <v>486639.5320018388</v>
       </c>
       <c r="I6" t="n">
         <v>486639.5320018389</v>
       </c>
       <c r="J6" t="n">
-        <v>310216.3128092458</v>
+        <v>310216.3128092459</v>
       </c>
       <c r="K6" t="n">
-        <v>486639.5320018388</v>
+        <v>486639.5320018389</v>
       </c>
       <c r="L6" t="n">
         <v>486639.5320018388</v>
       </c>
       <c r="M6" t="n">
-        <v>351838.5167680014</v>
+        <v>351838.5167680018</v>
       </c>
       <c r="N6" t="n">
-        <v>486639.532001839</v>
+        <v>486639.5320018389</v>
       </c>
       <c r="O6" t="n">
-        <v>486639.5320018388</v>
+        <v>486639.5320018386</v>
       </c>
       <c r="P6" t="n">
-        <v>486639.5320018389</v>
+        <v>486639.5320018387</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26793,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370144</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990183</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990183</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>92.22568407628495</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>43.0296844638404</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>11.78595076373404</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>168.6245956761327</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>47.08523102554418</v>
       </c>
       <c r="U7" t="n">
-        <v>256.8068496543193</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>54.65155117907533</v>
+        <v>90.29679129774924</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618419</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.5372407857032</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980132</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586599</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35744,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2761109.768097997</v>
+        <v>2754092.753206284</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9242967.440945614</v>
+        <v>9242967.440945612</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289.7046859959768</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>366.4469169731634</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494254</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>22.35153719005458</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>353.4869410072735</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>66.95575205799456</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.514855731544613</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>177.9498744325401</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>163.9206648785247</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>84.11892151122224</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>5.985757550887811</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>119.8741971385901</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>88.56658743892525</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.06705067831071</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>28.55669609962203</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.96185752339996</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>87.60442205160133</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.8026695426854</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3807313307303</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>62.74236544294535</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>190.7955476484028</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>189.6680532570898</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.7497637955644</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>176.9527187969214</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>88.90300047225696</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1902.75190621448</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="C2" t="n">
-        <v>1533.789389274068</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="D2" t="n">
-        <v>1175.523690667317</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>904.7520787722653</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>2289.351746278601</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,22 +4415,22 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>609.1812513243285</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>609.1812513243285</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>609.1812513243285</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>602.2357505751251</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>107.1902696184267</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>107.1902696184267</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>107.1902696184267</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>548.3816362947775</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>548.3816362947775</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3816362947775</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>240.388315801204</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>233.4428150520005</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>219.5194109905914</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2557.151793961624</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2557.151793961624</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2557.151793961624</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2557.151793961624</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2557.151793961624</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2557.151793961624</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>2167.012461985812</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050021</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942408</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942408</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>544.5191867458693</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>544.5191867458693</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,22 +5038,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>534.3905543375959</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>755.183133481126</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>755.183133481126</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>534.3905543375959</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.0423951757512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>173.0423951757512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>173.0423951757512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>173.0423951757512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>173.0423951757512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>173.0423951757512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>173.0423951757512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488384</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429516</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>354.6908600059909</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>354.6908600059909</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>354.6908600059909</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.6620995918039</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>552.6620995918039</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655738</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.3105644220436</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.5481934947356</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5481934947356</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
         <v>247.6350999123426</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1494.91439427164</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1494.91439427164</v>
       </c>
       <c r="T22" t="n">
-        <v>1410.426955354265</v>
+        <v>1271.128979061146</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.298316567823</v>
+        <v>1271.128979061146</v>
       </c>
       <c r="V22" t="n">
-        <v>866.6138283619359</v>
+        <v>1271.128979061146</v>
       </c>
       <c r="W22" t="n">
-        <v>577.1966583249754</v>
+        <v>1271.128979061146</v>
       </c>
       <c r="X22" t="n">
-        <v>577.1966583249754</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="Y22" t="n">
-        <v>577.1966583249754</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,58 +5983,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1302.145897282463</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1078.360482071968</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>789.2318432855265</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>534.5473550796396</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>245.130185042679</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1204.628307189697</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>980.8428919792032</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>980.8428919792032</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>726.1584037733163</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>436.7412337363557</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3522.531520626721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3522.531520626721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4260.730820705228</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4260.730820705228</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>3971.313650668268</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3522.531520626721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6788,19 +6788,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1306.193495155475</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,19 +6931,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1307.332378379024</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1307.332378379024</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1052.647890173137</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>763.2307201361762</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>763.2307201361762</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.2141304319072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>681.2779475040003</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>531.1613080916645</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>383.2482145092714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>236.3582670113611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1298.996260473455</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1071.006709575437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>850.2141304319072</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,28 +7390,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4520.375241843983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.246603057541</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851654</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814693</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916676</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916676</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>617.1460235486118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>617.1460235486118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>617.1460235486118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747067</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>15.83804904622866</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>47.37262396003771</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>57.86737520764392</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>35.35219478596127</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>120.0587769185903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>106.0024948803928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>133.9431390067879</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>3.118140440917813</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.54007865287295</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>85.873107575267</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>31.87950780129944</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>28.74380466781315</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>2.879261385015894</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>56.51804755067428</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.327398213</v>
-      </c>
       <c r="E2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="H2" t="n">
+        <v>586543.5896065625</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="O2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.589606563</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065627</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159207</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
@@ -26435,31 +26435,31 @@
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="N4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="O4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26484,25 +26484,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-204962.6785956617</v>
       </c>
       <c r="C6" t="n">
+        <v>385005.2006188822</v>
+      </c>
+      <c r="D6" t="n">
         <v>385005.2006188821</v>
       </c>
-      <c r="D6" t="n">
-        <v>385005.2006188824</v>
-      </c>
       <c r="E6" t="n">
-        <v>-38520.50447505682</v>
+        <v>-39495.09573477905</v>
       </c>
       <c r="F6" t="n">
-        <v>486639.5320018391</v>
+        <v>485664.940742117</v>
       </c>
       <c r="G6" t="n">
-        <v>486639.5320018391</v>
+        <v>485664.9407421169</v>
       </c>
       <c r="H6" t="n">
-        <v>486639.5320018388</v>
+        <v>485664.9407421168</v>
       </c>
       <c r="I6" t="n">
-        <v>486639.5320018389</v>
+        <v>485664.940742117</v>
       </c>
       <c r="J6" t="n">
-        <v>310216.3128092459</v>
+        <v>309241.7215495241</v>
       </c>
       <c r="K6" t="n">
-        <v>486639.5320018389</v>
+        <v>485664.9407421171</v>
       </c>
       <c r="L6" t="n">
-        <v>486639.5320018388</v>
+        <v>485664.9407421169</v>
       </c>
       <c r="M6" t="n">
-        <v>351838.5167680018</v>
+        <v>350863.9255082799</v>
       </c>
       <c r="N6" t="n">
-        <v>486639.5320018389</v>
+        <v>485664.9407421169</v>
       </c>
       <c r="O6" t="n">
-        <v>486639.5320018386</v>
+        <v>485664.9407421171</v>
       </c>
       <c r="P6" t="n">
-        <v>486639.5320018387</v>
+        <v>485664.9407421172</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,25 +26752,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>92.22568407628495</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>47.33725304763158</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>229.7861061337734</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>11.78595076373404</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>346.8284179628004</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>159.7949465275063</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27827,10 +27827,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>47.08523102554418</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>160.0021078858324</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>90.29679129774924</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>280.5372407857032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.13204062090063</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35740,16 +35740,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>326.2624260966949</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>610.8663700188198</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2754092.753206284</v>
+        <v>2759032.016055317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>127.8819313525581</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>366.4469169731634</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494254</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.35153719005459</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>22.35153719005458</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>66.95575205799456</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>150.6244957072495</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>7.514855731544613</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>193.5756411391281</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>346.6176528455107</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>163.9206648785247</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.4526127311942</v>
+        <v>173.9313784350751</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>88.56658743892525</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>135.2698980745979</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>96.38718145721447</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.96185752339996</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>40.41260797243049</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065173</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>165.1777278244232</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>7.273441302680134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.9527187969214</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.737983561873</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.737983561873</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.737983561873</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1315.737983561873</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>904.7520787722653</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4327,55 +4327,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.337823625995</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4406,40 +4406,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,19 +4497,19 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
         <v>579.9823256406182</v>
@@ -4524,16 +4524,16 @@
         <v>76.52029211334889</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>76.52029211334889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.1437682647402</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C5" t="n">
-        <v>609.1812513243285</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="D5" t="n">
-        <v>609.1812513243285</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="E5" t="n">
-        <v>609.1812513243285</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="F5" t="n">
-        <v>602.2357505751251</v>
+        <v>547.2070611056187</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>533.2836570442096</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>206.0889370802124</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3069090307624</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3069090307624</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>107.1902696184267</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>107.1902696184267</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>107.1902696184267</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>940.4137200851872</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>571.4512031447755</v>
       </c>
       <c r="D8" t="n">
-        <v>240.388315801204</v>
+        <v>571.4512031447755</v>
       </c>
       <c r="E8" t="n">
-        <v>240.388315801204</v>
+        <v>571.4512031447755</v>
       </c>
       <c r="F8" t="n">
-        <v>233.4428150520005</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>219.5194109905914</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1717.152892125121</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>1327.013560149309</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0324822735073</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C13" t="n">
-        <v>337.0962993456004</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>337.0962993456004</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123426</v>
@@ -5193,22 +5193,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1162.359999792043</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1162.359999792043</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>1162.359999792043</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>934.3704488940257</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735073</v>
+        <v>713.5778697504956</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>1841.189502980821</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1201.635471122733</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1201.635471122733</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>946.9509829168464</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,28 +5819,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
         <v>1999.905696641086</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1494.91439427164</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1494.91439427164</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1271.128979061146</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.128979061146</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1271.128979061146</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>1271.128979061146</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>1043.139428163128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1043.139428163128</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1168.966815637693</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>879.5496456007323</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688126</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799419</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471246</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954965</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1108.284665625769</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,25 +6876,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,19 +6931,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.99626047346</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.99626047346</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687018</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>755.1831334811312</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>755.1831334811312</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>747.8362230743836</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0436439308535</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y43" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,16 +7633,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,25 +7651,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,22 +7824,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
         <v>614.6238123952637</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>274.3657496970643</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305277</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>15.83804904622866</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>277.671796620807</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>57.86737520764392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,19 +23466,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>150.9674543239794</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>125.1603796011748</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>2.105225817279347</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>106.0024948803928</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>211.7250353513975</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.057676551872</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>121.0596245741542</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>218.436214086357</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.879261385015894</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>75.26883114644286</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408498</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982131</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065634</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="F2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065633</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="L2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065626</v>
-      </c>
       <c r="O2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065632</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007443</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.6785956617</v>
+        <v>-204962.678595662</v>
       </c>
       <c r="C6" t="n">
-        <v>385005.2006188822</v>
+        <v>385005.2006188818</v>
       </c>
       <c r="D6" t="n">
-        <v>385005.2006188821</v>
+        <v>385005.2006188823</v>
       </c>
       <c r="E6" t="n">
-        <v>-39495.09573477905</v>
+        <v>-38617.96360102936</v>
       </c>
       <c r="F6" t="n">
-        <v>485664.940742117</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="G6" t="n">
-        <v>485664.9407421169</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="H6" t="n">
-        <v>485664.9407421168</v>
+        <v>486542.0728758666</v>
       </c>
       <c r="I6" t="n">
-        <v>485664.940742117</v>
+        <v>486542.072875867</v>
       </c>
       <c r="J6" t="n">
-        <v>309241.7215495241</v>
+        <v>310118.8536832741</v>
       </c>
       <c r="K6" t="n">
-        <v>485664.9407421171</v>
+        <v>486542.0728758667</v>
       </c>
       <c r="L6" t="n">
-        <v>485664.9407421169</v>
+        <v>486542.0728758667</v>
       </c>
       <c r="M6" t="n">
-        <v>350863.9255082799</v>
+        <v>351741.0576420297</v>
       </c>
       <c r="N6" t="n">
-        <v>485664.9407421169</v>
+        <v>486542.0728758666</v>
       </c>
       <c r="O6" t="n">
-        <v>485664.9407421171</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="P6" t="n">
-        <v>485664.9407421172</v>
+        <v>486542.072875867</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26822,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>226.8011102681248</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.33725304763158</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>22.84842199848242</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>229.7861061337734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>346.8284179628004</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.30682053761177</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7949465275063</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>92.70623310284961</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>60.25839289620075</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>160.0021078858324</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.13204062090063</v>
+        <v>44.65327491701964</v>
       </c>
     </row>
     <row r="11">
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-9.316640638151239e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.373124167817878e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.091083191524911e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>481.459164628589</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541609</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>326.2624260966949</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299159</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>610.8663700188198</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118057</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
